--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BTDG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -741,19 +744,22 @@
       <c r="K8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -770,13 +776,16 @@
       <c r="K9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -788,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -799,8 +808,11 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,42 +886,48 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,23 +1041,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1038,37 +1071,43 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,7 +1121,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1096,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,23 +1423,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1386,37 +1455,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1618,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1545,25 +1631,28 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1602,26 +1694,29 @@
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1634,8 +1729,8 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -1649,8 +1744,11 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1672,14 +1770,17 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1696,19 +1797,22 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+      <c r="J46" s="3">
+        <v>100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1840,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1890,7 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -1788,14 +1898,17 @@
       <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>800</v>
       </c>
       <c r="F54" s="3">
         <v>800</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,7 +2104,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -1986,65 +2116,71 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2052,37 +2188,43 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+      <c r="J60" s="3">
+        <v>200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2105,42 +2247,48 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+      <c r="J66" s="3">
+        <v>200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2831,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3021,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2817,28 +3033,31 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,22 +3069,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -2873,14 +3093,17 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,22 +3163,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -2961,13 +3190,16 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3401,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3431,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>BTDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,121 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -779,20 +793,26 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
@@ -800,10 +820,10 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -811,8 +831,14 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,31 +938,37 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,10 +976,10 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,29 +1108,31 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1074,8 +1142,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,39 +1157,45 @@
         <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1124,10 +1204,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1138,40 +1218,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,29 +1560,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1458,40 +1598,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,8 +1791,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1634,7 +1808,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -1643,16 +1817,22 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1697,31 +1883,37 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1732,11 +1924,11 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1747,8 +1939,14 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1773,14 +1971,20 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1800,19 +2004,25 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1822,20 +2032,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1843,48 +2053,60 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -1893,22 +2115,28 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>300</v>
+      </c>
+      <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2355,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
@@ -2119,112 +2381,136 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2250,25 +2536,31 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2281,14 +2573,20 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2841,10 +3239,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2864,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,8 +3902,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3434,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>BTDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -761,28 +765,31 @@
       <c r="N8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -799,8 +806,11 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,14 +818,14 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
@@ -826,7 +836,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,37 +958,40 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,7 +1005,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,32 +1143,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1148,57 +1182,63 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1210,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,32 +1633,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,13 +1879,14 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1814,25 +1901,28 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,25 +1959,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1896,27 +1989,30 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1930,8 +2026,8 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1945,13 +2041,16 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1977,19 +2076,22 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2010,19 +2112,22 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
+      <c r="M46" s="3">
+        <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,8 +2137,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2047,8 +2152,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2059,46 +2164,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2109,7 +2220,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -2121,7 +2232,7 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2129,14 +2240,17 @@
       <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
       </c>
       <c r="J54" s="3">
+        <v>800</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,16 +2497,16 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2387,83 +2518,89 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -2471,46 +2608,52 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
+      <c r="M60" s="3">
+        <v>200</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2542,28 +2685,31 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2579,14 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
+      <c r="M66" s="3">
+        <v>200</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,31 +3732,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3544,14 +3765,17 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,31 +3853,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3659,13 +3889,16 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,13 +4157,16 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>BTDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,102 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -768,31 +771,34 @@
       <c r="O8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -809,26 +815,29 @@
       <c r="O9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -839,7 +848,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -850,8 +859,11 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,37 +980,40 @@
         <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +1030,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,35 +1176,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1185,49 +1218,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,13 +1274,13 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1253,7 +1292,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1267,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,35 +1702,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1677,49 +1746,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,17 +1965,18 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
@@ -1904,25 +1990,28 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1992,19 +2084,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2014,8 +2109,8 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2029,8 +2124,8 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2044,8 +2139,11 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +2151,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2079,23 +2177,26 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
@@ -2115,19 +2216,22 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
+      <c r="N46" s="3">
+        <v>100</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2140,8 +2244,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2155,8 +2259,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2167,49 +2271,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2223,7 +2333,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -2235,7 +2345,7 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2243,14 +2353,17 @@
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>800</v>
       </c>
       <c r="K54" s="3">
+        <v>800</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2617,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,16 +2630,16 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2521,89 +2651,95 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -2611,49 +2747,55 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
+      <c r="N60" s="3">
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2688,31 +2830,34 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2728,14 +2873,17 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
+      <c r="N66" s="3">
+        <v>200</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3447,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,34 +3952,35 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -3768,14 +3988,17 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,34 +4082,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -3892,13 +4121,16 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,17 +4408,20 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4450,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>BTDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
@@ -745,66 +753,72 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -818,32 +832,38 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
@@ -851,10 +871,10 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -862,8 +882,14 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,37 +1023,43 @@
         <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>600</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1067,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1033,10 +1079,10 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,41 +1243,43 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1221,73 +1289,85 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2300</v>
       </c>
       <c r="H21" s="3">
         <v>-800</v>
       </c>
       <c r="I21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
@@ -1295,10 +1375,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1309,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1100</v>
       </c>
       <c r="G23" s="3">
         <v>-2600</v>
       </c>
       <c r="H23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1100</v>
       </c>
       <c r="G26" s="3">
         <v>-2600</v>
       </c>
       <c r="H26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1100</v>
       </c>
       <c r="G27" s="3">
         <v>-2600</v>
       </c>
       <c r="H27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,41 +1839,47 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1749,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1100</v>
       </c>
       <c r="G33" s="3">
         <v>-2600</v>
       </c>
       <c r="H33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1100</v>
       </c>
       <c r="G35" s="3">
         <v>-2600</v>
       </c>
       <c r="H35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1975,14 +2149,14 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
@@ -1993,7 +2167,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2002,16 +2176,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2087,36 +2273,42 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2127,11 +2319,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2142,22 +2334,28 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2180,29 +2378,35 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -2219,19 +2423,25 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2247,11 +2457,11 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2262,11 +2472,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2274,60 +2484,72 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2336,10 +2558,10 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -2348,22 +2570,28 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>300</v>
+      </c>
+      <c r="P49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,31 +2684,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2494,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,35 +2878,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
@@ -2654,156 +2916,180 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F60" s="3">
         <v>7700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2833,37 +3119,43 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2876,14 +3168,20 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1100</v>
       </c>
       <c r="G81" s="3">
         <v>-2600</v>
       </c>
       <c r="H81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3636,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3648,10 +4046,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3671,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,23 +4909,29 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4453,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>BTDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,144 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
       </c>
       <c r="H8" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>600</v>
+      </c>
+      <c r="K8" s="3">
+        <v>500</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -838,38 +851,44 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>400</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -877,10 +896,10 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -888,8 +907,14 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +933,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +985,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,13 +1041,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
@@ -1029,37 +1068,43 @@
         <v>-100</v>
       </c>
       <c r="I14" s="3">
-        <v>600</v>
+        <v>-200</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,28 +1112,28 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1153,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1176,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2700</v>
-      </c>
       <c r="G17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G18" s="3">
-        <v>-1500</v>
+        <v>-3300</v>
       </c>
       <c r="H18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,47 +1310,49 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-200</v>
-      </c>
       <c r="G20" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1295,85 +1362,97 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-800</v>
-      </c>
       <c r="I21" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="J21" s="3">
         <v>-800</v>
       </c>
       <c r="K21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>300</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
@@ -1381,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1395,58 +1474,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1586,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,31 +1810,37 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1745,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,47 +1978,53 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>200</v>
-      </c>
       <c r="G32" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +2034,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2311,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,20 +2322,20 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
@@ -2173,7 +2346,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2182,16 +2355,22 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2419,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2279,19 +2464,25 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2301,20 +2492,20 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2325,11 +2516,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -2340,8 +2531,14 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2384,14 +2581,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,17 +2605,17 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
@@ -2429,19 +2632,25 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2463,11 +2672,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2478,11 +2687,11 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,58 +2699,70 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2564,10 +2785,10 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -2576,22 +2797,28 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,22 +2923,28 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2716,11 +2955,11 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2740,8 +2979,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3035,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3139,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
@@ -2922,166 +3183,190 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3092,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -3125,43 +3410,49 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3174,14 +3465,20 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3639,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F66" s="3">
         <v>16600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3941,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4165,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4420,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,28 +4431,28 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4075,8 +4472,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4834,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4419,34 +4860,40 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4998,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,49 +5013,55 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5300,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>2200</v>
       </c>
       <c r="F100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,29 +5412,35 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5466,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BTDG_QTR_FIN.xlsx
@@ -4857,7 +4857,7 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
